--- a/2023/ecuador_liga-pro_2023.xlsx
+++ b/2023/ecuador_liga-pro_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V64"/>
+  <dimension ref="A1:V65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6345,6 +6345,98 @@
         </is>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45206.08333333334</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Dep. Cuenca</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>2</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>U. Catolica</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>3</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>30/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>07/10/2023 01:51</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>30/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>07/10/2023 01:57</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>30/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>07/10/2023 01:51</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/dep-cuenca-u-catolica/hhp0eh7g/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/ecuador_liga-pro_2023.xlsx
+++ b/2023/ecuador_liga-pro_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:V66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6437,6 +6437,98 @@
         </is>
       </c>
     </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45206.83333333334</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Tecnico U.</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>2</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Orense</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>02/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>07/10/2023 19:53</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>02/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>07/10/2023 19:45</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>02/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>07/10/2023 19:53</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/tecnico-u-orense/v9nChjiC/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/ecuador_liga-pro_2023.xlsx
+++ b/2023/ecuador_liga-pro_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V66"/>
+  <dimension ref="A1:V68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6529,6 +6529,190 @@
         </is>
       </c>
     </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45206.9375</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Emelec</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>3</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Cumbaya</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>01/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>07/10/2023 22:28</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>01/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>07/10/2023 22:28</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>01/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>07/10/2023 22:28</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/emelec-cumbaya/Wrq4fCMa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45207.04166666666</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Aucas</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>3</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Barcelona SC</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>2</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>02/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>08/10/2023 00:58</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>02/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>08/10/2023 00:58</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>02/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>08/10/2023 00:58</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/aucas-barcelona-sc/UaSX1fUP/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/ecuador_liga-pro_2023.xlsx
+++ b/2023/ecuador_liga-pro_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V68"/>
+  <dimension ref="A1:V69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6713,6 +6713,98 @@
         </is>
       </c>
     </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45207.83333333334</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>EL Nacional</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>2</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Mushuc Runa</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>01/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>08/10/2023 19:52</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>01/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>08/10/2023 19:52</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>01/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>08/10/2023 19:52</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/el-nacional-mushuc-runa/Q5r8gWy6/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/ecuador_liga-pro_2023.xlsx
+++ b/2023/ecuador_liga-pro_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V69"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6805,6 +6805,190 @@
         </is>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45207.9375</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Ind. del Valle</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>2</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Gualaceo</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>01/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>08/10/2023 22:26</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>01/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>08/10/2023 22:26</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>01/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>14.94</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>08/10/2023 22:26</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/independiente-del-valle-gualaceo/GUV3xY17/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45208.04166666666</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Delfin</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>LDU Quito</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>02/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>09/10/2023 00:59</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>02/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>09/10/2023 00:59</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>02/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>09/10/2023 00:59</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/delfin-ldu-quito/QVD3dYim/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/ecuador_liga-pro_2023.xlsx
+++ b/2023/ecuador_liga-pro_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V71"/>
+  <dimension ref="A1:V72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6989,6 +6989,98 @@
         </is>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45209.08333333334</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Guayaquil City</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>03/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>10/10/2023 01:52</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>03/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>10/10/2023 01:52</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>03/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>10/10/2023 01:52</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/libertad-guayaquil-city/nuFacExs/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/ecuador_liga-pro_2023.xlsx
+++ b/2023/ecuador_liga-pro_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V72"/>
+  <dimension ref="A1:V73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7081,6 +7081,98 @@
         </is>
       </c>
     </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45220.08333333334</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Orense</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>EL Nacional</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>14/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:52</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>14/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:50</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>14/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:52</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/orense-el-nacional/jmGUAX6t/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/ecuador_liga-pro_2023.xlsx
+++ b/2023/ecuador_liga-pro_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V73"/>
+  <dimension ref="A1:V74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7173,6 +7173,98 @@
         </is>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45220.83333333334</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Cumbaya</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Tecnico U.</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>14/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>21/10/2023 19:57</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>14/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>21/10/2023 19:57</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>14/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>21/10/2023 19:57</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/cumbaya-tecnico-u/YB5Z9iMn/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/ecuador_liga-pro_2023.xlsx
+++ b/2023/ecuador_liga-pro_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V74"/>
+  <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7265,6 +7265,190 @@
         </is>
       </c>
     </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45220.9375</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Mushuc Runa</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Dep. Cuenca</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>14/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>21/10/2023 22:20</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>14/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>21/10/2023 22:20</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>14/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>21/10/2023 22:20</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/mushuc-runa-dep-cuenca/v98s8Vja/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45221.04166666666</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Barcelona SC</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>15/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>22/10/2023 00:56</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>15/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>22/10/2023 00:56</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>15/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>22/10/2023 00:56</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/barcelona-sc-libertad/Ia7o7k65/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/ecuador_liga-pro_2023.xlsx
+++ b/2023/ecuador_liga-pro_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V76"/>
+  <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7449,6 +7449,282 @@
         </is>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45221.8125</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Gualaceo</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Aucas</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>2</v>
+      </c>
+      <c r="J77" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>15/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>22/10/2023 19:20</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>15/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>22/10/2023 19:20</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>15/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>22/10/2023 19:20</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/gualaceo-aucas/0OzLjULO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45221.91666666666</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Guayaquil City</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Ind. del Valle</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>2</v>
+      </c>
+      <c r="J78" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>15/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>22/10/2023 21:58</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>15/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>22/10/2023 21:58</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>15/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>22/10/2023 21:58</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/guayaquil-city-independiente-del-valle/lvU2FDbP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45222.79166666666</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>LDU Quito</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Emelec</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>16/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>23/10/2023 18:57</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>16/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>23/10/2023 18:57</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>16/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>23/10/2023 18:57</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/ldu-quito-emelec/MXyHiA6I/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/ecuador_liga-pro_2023.xlsx
+++ b/2023/ecuador_liga-pro_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V79"/>
+  <dimension ref="A1:V80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7725,6 +7725,98 @@
         </is>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45223.08333333334</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>U. Catolica</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>2</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Delfin</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>2</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>17/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>24/10/2023 01:33</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>17/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>24/10/2023 01:33</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>17/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>24/10/2023 01:33</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/u-catolica-delfin/pn9w9Byg/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/ecuador_liga-pro_2023.xlsx
+++ b/2023/ecuador_liga-pro_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V80"/>
+  <dimension ref="A1:V87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7817,6 +7817,650 @@
         </is>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45227.08333333334</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>3</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Gualaceo</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>28/10/2023 01:52</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>28/10/2023 01:54</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>28/10/2023 01:54</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/libertad-gualaceo/CMSKLlLb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45227.83333333334</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Ind. del Valle</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>2</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Dep. Cuenca</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:13</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>28/10/2023 08:37</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:13</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>28/10/2023 19:38</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:13</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>28/10/2023 19:38</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/independiente-del-valle-dep-cuenca/YVTGMU5h/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45228.04166666666</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Emelec</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>2</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>U. Catolica</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>24/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>29/10/2023 00:56</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>24/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>29/10/2023 00:56</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>24/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>29/10/2023 00:56</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/emelec-u-catolica/Mi42375U/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45228.79166666666</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Delfin</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>4</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Cumbaya</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>24/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:51</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>24/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:51</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>24/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:51</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/delfin-cumbaya/nFV8Ojyt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45228.89583333334</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Aucas</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>4</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Mushuc Runa</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>29/10/2023 21:26</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>29/10/2023 21:26</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>29/10/2023 21:26</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/aucas-mushuc-runa/Q5UCNAjn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Orense</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>2</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Barcelona SC</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>3</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>23/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>29/10/2023 23:55</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>23/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>29/10/2023 23:25</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>23/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>29/10/2023 23:55</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/orense-barcelona-sc/zy2j69LB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45230.04166666666</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>EL Nacional</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>2</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Guayaquil City</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>24/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>31/10/2023 00:56</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>24/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>31/10/2023 00:56</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>24/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>31/10/2023 00:56</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/el-nacional-guayaquil-city/ER0f5TzI/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/ecuador_liga-pro_2023.xlsx
+++ b/2023/ecuador_liga-pro_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V87"/>
+  <dimension ref="A1:V88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8461,6 +8461,98 @@
         </is>
       </c>
     </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45232.04166666666</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>LDU Quito</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>U. Catolica</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>24/09/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>02/11/2023 00:54</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>24/09/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>02/11/2023 00:54</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>24/09/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>02/11/2023 00:54</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/ldu-quito-u-catolica/YykQrFNm/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/ecuador_liga-pro_2023.xlsx
+++ b/2023/ecuador_liga-pro_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V88"/>
+  <dimension ref="A1:V89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8553,6 +8553,98 @@
         </is>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45234.04166666666</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Dep. Cuenca</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Aucas</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>29/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>04/11/2023 00:52</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>29/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>04/11/2023 00:50</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>29/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>04/11/2023 00:52</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/dep-cuenca-aucas/8lMTJSkB/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/ecuador_liga-pro_2023.xlsx
+++ b/2023/ecuador_liga-pro_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V89"/>
+  <dimension ref="A1:V92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8645,6 +8645,282 @@
         </is>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45234.79166666666</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Gualaceo</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>2</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Delfin</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>2</v>
+      </c>
+      <c r="J90" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:53</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:53</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:53</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/gualaceo-delfin/0n18Cpro/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45234.89583333334</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Guayaquil City</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Emelec</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>31/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>04/11/2023 21:20</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>31/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>04/11/2023 21:20</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>31/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>04/11/2023 21:20</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/guayaquil-city-emelec/foIPK8z5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45235</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>LDU Quito</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>2</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Ind. del Valle</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>04/11/2023 23:58</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>04/11/2023 23:58</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>04/11/2023 23:58</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/ldu-quito-independiente-del-valle/2BLXIn5H/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/ecuador_liga-pro_2023.xlsx
+++ b/2023/ecuador_liga-pro_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V92"/>
+  <dimension ref="A1:V94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8921,6 +8921,190 @@
         </is>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45235.77083333334</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Mushuc Runa</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Tecnico U.</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>29/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:21</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>29/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:21</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>29/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:24</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/mushuc-runa-tecnico-u/bwFtHQZT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45235.875</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Cumbaya</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Orense</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>30/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>05/11/2023 20:56</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>30/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>05/11/2023 20:56</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>30/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>05/11/2023 20:56</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/cumbaya-orense/EkkjyUKo/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/ecuador_liga-pro_2023.xlsx
+++ b/2023/ecuador_liga-pro_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V94"/>
+  <dimension ref="A1:V95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9105,6 +9105,98 @@
         </is>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Barcelona SC</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>3</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>EL Nacional</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>31/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>05/11/2023 23:56</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>31/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>05/11/2023 23:56</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>31/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>05/11/2023 23:56</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/barcelona-sc-el-nacional/t2KyI6KN/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/ecuador_liga-pro_2023.xlsx
+++ b/2023/ecuador_liga-pro_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V95"/>
+  <dimension ref="A1:V96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9197,6 +9197,98 @@
         </is>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45237.04166666666</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>U. Catolica</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>07/11/2023 00:56</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>07/11/2023 00:56</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>07/11/2023 00:56</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/u-catolica-libertad/Cz8gzlzh/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/ecuador_liga-pro_2023.xlsx
+++ b/2023/ecuador_liga-pro_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V96"/>
+  <dimension ref="A1:V97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9289,6 +9289,98 @@
         </is>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45239.04166666666</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Tecnico U.</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>LDU Quito</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>2</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>09/11/2023 00:58</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>09/11/2023 00:56</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>09/11/2023 00:58</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/tecnico-u-ldu-quito/8l0b4mjO/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/ecuador_liga-pro_2023.xlsx
+++ b/2023/ecuador_liga-pro_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V97"/>
+  <dimension ref="A1:V98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9381,6 +9381,98 @@
         </is>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45241.04166666666</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Orense</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Mushuc Runa</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>05/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>11/11/2023 00:54</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>05/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>11/11/2023 00:54</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>05/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>11/11/2023 00:55</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/orense-mushuc-runa/zHHrEcJk/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/ecuador_liga-pro_2023.xlsx
+++ b/2023/ecuador_liga-pro_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V98"/>
+  <dimension ref="A1:V99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9473,6 +9473,98 @@
         </is>
       </c>
     </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45241.79166666666</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>U. Catolica</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Cumbaya</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>06/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:56</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>06/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:56</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>06/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>8.48</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:56</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/u-catolica-cumbaya/tGaAW5ZG/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/ecuador_liga-pro_2023.xlsx
+++ b/2023/ecuador_liga-pro_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V99"/>
+  <dimension ref="A1:V101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9565,6 +9565,190 @@
         </is>
       </c>
     </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45241.89583333334</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Guayaquil City</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Tecnico U.</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>09/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>11/11/2023 21:29</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>09/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>11/11/2023 21:26</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>09/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>11/11/2023 21:26</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/guayaquil-city-tecnico-u/MDDvFw4q/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45242</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Aucas</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>2</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Ind. del Valle</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>05/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>11/11/2023 23:53</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>05/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>11/11/2023 23:53</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>05/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>11/11/2023 23:53</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/aucas-independiente-del-valle/2P06XoKA/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/ecuador_liga-pro_2023.xlsx
+++ b/2023/ecuador_liga-pro_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V101"/>
+  <dimension ref="A1:V103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9749,6 +9749,190 @@
         </is>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45242.77083333334</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>EL Nacional</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>4</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Gualaceo</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>2</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>06/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>06/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>06/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/el-nacional-gualaceo/8UFjCyl2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45242.875</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>LDU Quito</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>2</v>
+      </c>
+      <c r="J103" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>09/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>12/11/2023 20:58</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>09/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>12/11/2023 20:58</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>09/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>12/11/2023 20:58</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/libertad-ldu-quito/Ykd2YR44/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/ecuador_liga-pro_2023.xlsx
+++ b/2023/ecuador_liga-pro_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V103"/>
+  <dimension ref="A1:V104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9933,6 +9933,98 @@
         </is>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Emelec</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Barcelona SC</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>06/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>12/11/2023 23:50</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>06/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>12/11/2023 23:50</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>06/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>12/11/2023 23:50</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/emelec-barcelona-sc/facbZ7kb/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/ecuador_liga-pro_2023.xlsx
+++ b/2023/ecuador_liga-pro_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V104"/>
+  <dimension ref="A1:V105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10025,6 +10025,98 @@
         </is>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45244.04166666666</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Delfin</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Dep. Cuenca</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>2</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>07/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>14/11/2023 00:53</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>07/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>14/11/2023 00:53</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>07/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>14/11/2023 00:53</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/delfin-dep-cuenca/UwHnDHYe/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/ecuador_liga-pro_2023.xlsx
+++ b/2023/ecuador_liga-pro_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V105"/>
+  <dimension ref="A1:V109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10117,6 +10117,374 @@
         </is>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Aucas</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Delfin</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>19/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>25/11/2023 23:59</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>19/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>25/11/2023 23:59</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>19/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>25/11/2023 23:52</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/aucas-delfin/vBaASdYr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Dep. Cuenca</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>1</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>EL Nacional</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>19/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>25/11/2023 23:55</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>19/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>25/11/2023 23:55</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>19/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>25/11/2023 23:55</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/dep-cuenca-el-nacional/x2DrXxQR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Ind. del Valle</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>2</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Orense</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>2</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>19/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>25/11/2023 23:42</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>19/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>25/11/2023 23:42</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>19/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>25/11/2023 23:42</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/independiente-del-valle-orense/8p4ERGmk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Mushuc Runa</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>U. Catolica</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>2</v>
+      </c>
+      <c r="J109" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>19/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>25/11/2023 23:51</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>19/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>25/11/2023 23:51</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>19/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>25/11/2023 23:45</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/mushuc-runa-u-catolica/fwOwYIAL/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/ecuador_liga-pro_2023.xlsx
+++ b/2023/ecuador_liga-pro_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V109"/>
+  <dimension ref="A1:V113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10485,6 +10485,374 @@
         </is>
       </c>
     </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Gualaceo</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Emelec</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>2</v>
+      </c>
+      <c r="J110" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>20/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>26/11/2023 23:58</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>20/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>26/11/2023 23:58</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>20/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>26/11/2023 23:58</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/gualaceo-emelec/8MLRzLQ2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Barcelona SC</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>2</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Guayaquil City</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>20/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>26/11/2023 23:58</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>20/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>26/11/2023 23:58</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>20/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>26/11/2023 23:58</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/barcelona-sc-guayaquil-city/nDKVZvt9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Cumbaya</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>1</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>LDU Quito</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>2</v>
+      </c>
+      <c r="J112" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>20/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>26/11/2023 23:55</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>20/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>26/11/2023 23:55</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>20/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>26/11/2023 23:55</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/cumbaya-ldu-quito/tzKZYbeF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Tecnico U.</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>1</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>20/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>26/11/2023 23:21</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>20/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>26/11/2023 23:21</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>20/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>26/11/2023 23:21</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/tecnico-u-libertad/ny3IQz3e/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/ecuador_liga-pro_2023.xlsx
+++ b/2023/ecuador_liga-pro_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V113"/>
+  <dimension ref="A1:V115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10509,22 +10509,22 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Gualaceo</t>
+          <t>Barcelona SC</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Emelec</t>
+          <t>Guayaquil City</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>3.41</v>
+        <v>1.28</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2.62</v>
+        <v>1.45</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.32</v>
+        <v>5.6</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.33</v>
+        <v>4.42</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         </is>
       </c>
       <c r="R110" t="n">
-        <v>2.18</v>
+        <v>10.05</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>2.76</v>
+        <v>7.46</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/ecuador/liga-pro/gualaceo-emelec/8MLRzLQ2/</t>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/barcelona-sc-guayaquil-city/nDKVZvt9/</t>
         </is>
       </c>
     </row>
@@ -10601,22 +10601,22 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Barcelona SC</t>
+          <t>Cumbaya</t>
         </is>
       </c>
       <c r="G111" t="n">
+        <v>1</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>LDU Quito</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
         <v>2</v>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Guayaquil City</t>
-        </is>
-      </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
       <c r="J111" t="n">
-        <v>1.28</v>
+        <v>5.71</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,15 +10624,15 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>1.45</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>26/11/2023 23:58</t>
+          <t>26/11/2023 23:55</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>5.6</v>
+        <v>4.01</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -10640,15 +10640,15 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>4.42</v>
+        <v>4.53</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>26/11/2023 23:58</t>
+          <t>26/11/2023 23:55</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>10.05</v>
+        <v>1.53</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
@@ -10656,16 +10656,16 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>7.46</v>
+        <v>1.37</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>26/11/2023 23:58</t>
+          <t>26/11/2023 23:55</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/ecuador/liga-pro/barcelona-sc-guayaquil-city/nDKVZvt9/</t>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/cumbaya-ldu-quito/tzKZYbeF/</t>
         </is>
       </c>
     </row>
@@ -10693,22 +10693,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Cumbaya</t>
+          <t>Gualaceo</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>LDU Quito</t>
+          <t>Emelec</t>
         </is>
       </c>
       <c r="I112" t="n">
         <v>2</v>
       </c>
       <c r="J112" t="n">
-        <v>5.71</v>
+        <v>3.41</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>9.789999999999999</v>
+        <v>2.62</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>26/11/2023 23:55</t>
+          <t>26/11/2023 23:58</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>4.01</v>
+        <v>3.32</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,15 +10732,15 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>4.53</v>
+        <v>3.33</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>26/11/2023 23:55</t>
+          <t>26/11/2023 23:58</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>1.53</v>
+        <v>2.18</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,16 +10748,16 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>1.37</v>
+        <v>2.76</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>26/11/2023 23:55</t>
+          <t>26/11/2023 23:58</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/ecuador/liga-pro/cumbaya-ldu-quito/tzKZYbeF/</t>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/gualaceo-emelec/8MLRzLQ2/</t>
         </is>
       </c>
     </row>
@@ -10850,6 +10850,190 @@
       <c r="V113" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/ecuador/liga-pro/tecnico-u-libertad/ny3IQz3e/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45270.9375</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Ind. del Valle</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>LDU Quito</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>09/12/2023 11:43</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>10/12/2023 22:20</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>09/12/2023 11:43</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>10/12/2023 22:20</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>09/12/2023 11:43</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>10/12/2023 22:20</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/independiente-del-valle-ldu-quito/joyDcvi4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>ecuador</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>liga-pro</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45277.9375</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>LDU Quito</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>1</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Ind. del Valle</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>10/12/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>17/12/2023 22:27</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>10/12/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>17/12/2023 22:24</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>10/12/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T115" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>17/12/2023 22:27</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/ecuador/liga-pro/ldu-quito-independiente-del-valle/p8zHdb6A/</t>
         </is>
       </c>
     </row>
